--- a/trust/all-profiles.xlsx
+++ b/trust/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="137">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T21:35:55+00:00</t>
+    <t>2024-04-12T08:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>WHO (http://who.int)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -385,10 +385,17 @@
     <t>http://smart.who.int/trust/StructureDefinition/HCert</t>
   </si>
   <si>
-    <t>Logical Model for the HCERT</t>
-  </si>
-  <si>
-    <t>HCert.hcert</t>
+    <t xml:space="preserve">Logical Model for the HCERT
+The full data structure and encoding mechanisms for HCERT are defined here: [Electronic Health Certificate Specification](/smart-trust/hcert_spec.html)
+An HCERT is claim -260 within the [CBOR Web Token (CWT) Claim](https://www.rfc-editor.org/rfc/rfc8392.html).
+Note for subclaims:
+- subclaims 0 and above are reserved by WHO to be assigned, a new sub claim can be requested for by requesting to create a new trust domain
+- subclaims for negative integer values are for development purposes and are free to use
+- While this logical model mentions assigned subclaims (below), the ones listed in the Electronic Health Certificate Specification are considered authoritative
+</t>
+  </si>
+  <si>
+    <t>HCert.1</t>
   </si>
   <si>
     <t xml:space="preserve">http://smart.who.int/ddcc/StructureDefinition/HCertDCC
@@ -398,7 +405,7 @@
     <t>HCERT EU DCC</t>
   </si>
   <si>
-    <t>HCert.ddccvs</t>
+    <t>HCert.3</t>
   </si>
   <si>
     <t xml:space="preserve">DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet.VS}
@@ -411,7 +418,7 @@
     <t>DDCC Vaccination claim (PROPOSED)</t>
   </si>
   <si>
-    <t>HCert.ddcctr</t>
+    <t>HCert.4</t>
   </si>
   <si>
     <t xml:space="preserve">DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet.TR}
@@ -424,7 +431,7 @@
     <t>DDCC Test Result claim (PROPOSED)</t>
   </si>
   <si>
-    <t>HCert.shl</t>
+    <t>HCert.5</t>
   </si>
   <si>
     <t xml:space="preserve">http://smart.who.int/ips-pilgrimage/StructureDefinition/SmartHealthLink
@@ -435,19 +442,6 @@
   </si>
   <si>
     <t>SMART Health Link (PROPOSED)</t>
-  </si>
-  <si>
-    <t>HCert.ips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundle {http://hl7.org/fhir/uv/ips/StructureDefinition/Bundle-uv-ips}
-</t>
-  </si>
-  <si>
-    <t>IPS</t>
-  </si>
-  <si>
-    <t>IPS Bundle (EXAMPLE)</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1240,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK19"/>
+  <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3156,109 +3150,6 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R19" s="2"/>
-      <c r="S19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/trust/all-profiles.xlsx
+++ b/trust/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="233">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T08:01:09+00:00</t>
+    <t>2024-04-25T23:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -385,14 +385,7 @@
     <t>http://smart.who.int/trust/StructureDefinition/HCert</t>
   </si>
   <si>
-    <t xml:space="preserve">Logical Model for the HCERT
-The full data structure and encoding mechanisms for HCERT are defined here: [Electronic Health Certificate Specification](/smart-trust/hcert_spec.html)
-An HCERT is claim -260 within the [CBOR Web Token (CWT) Claim](https://www.rfc-editor.org/rfc/rfc8392.html).
-Note for subclaims:
-- subclaims 0 and above are reserved by WHO to be assigned, a new sub claim can be requested for by requesting to create a new trust domain
-- subclaims for negative integer values are for development purposes and are free to use
-- While this logical model mentions assigned subclaims (below), the ones listed in the Electronic Health Certificate Specification are considered authoritative
-</t>
+    <t>Logical Model for the HCERT</t>
   </si>
   <si>
     <t>HCert.1</t>
@@ -434,14 +427,323 @@
     <t>HCert.5</t>
   </si>
   <si>
-    <t xml:space="preserve">http://smart.who.int/ips-pilgrimage/StructureDefinition/SmartHealthLink
+    <t xml:space="preserve">http://smart.who.int/trust/StructureDefinition/SmartHealthLink
 </t>
   </si>
   <si>
     <t>SMART Health Link claim</t>
   </si>
   <si>
-    <t>SMART Health Link (PROPOSED)</t>
+    <t>SMART Health Link</t>
+  </si>
+  <si>
+    <t>SchemeInformation</t>
+  </si>
+  <si>
+    <t>http://smart.who.int/trust/StructureDefinition/SchemeInformation</t>
+  </si>
+  <si>
+    <t>Scheme Information</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Logical Model for Information on the trusted list and its issuing scheme</t>
+  </si>
+  <si>
+    <t>SchemeInformation.versionIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>TSL version identifier (clause 5.3.1)</t>
+  </si>
+  <si>
+    <t>SchemeInformation.sequenceNumber</t>
+  </si>
+  <si>
+    <t>TSL sequence number (clause 5.3.2)</t>
+  </si>
+  <si>
+    <t>SchemeInformation.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>TSL type (clause 5.3.3)</t>
+  </si>
+  <si>
+    <t>SchemeInformation.operatorName</t>
+  </si>
+  <si>
+    <t>Scheme operator name (clause 5.3.4)</t>
+  </si>
+  <si>
+    <t>SchemeInformation.operatorAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Scheme operator address (clause 5.3.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>SchemeInformation.operatorAddress.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>SchemeInformation.operatorAddress.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>SchemeInformation.operatorAddress.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>SchemeInformation.operatorAddress.operatorPostalAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address
+</t>
+  </si>
+  <si>
+    <t>Scheme Operator Postal Address</t>
+  </si>
+  <si>
+    <t>SchemeInformation.operatorAddress.operatorElectronicAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>Scheme Operator Electronic Address</t>
+  </si>
+  <si>
+    <t>SchemeInformation.name</t>
+  </si>
+  <si>
+    <t>Scheme name (clause 5.3.6)</t>
+  </si>
+  <si>
+    <t>Scheme name (clause 5.3.6) CC:EN_name_value</t>
+  </si>
+  <si>
+    <t>SchemeInformation.informationURI</t>
+  </si>
+  <si>
+    <t>Scheme information URI (clause 5.3.7)</t>
+  </si>
+  <si>
+    <t>SchemeInformation.statusDeterminiationApproach</t>
+  </si>
+  <si>
+    <t>Status determination approach (clause 5.3.8)</t>
+  </si>
+  <si>
+    <t>SchemeInformation.schemeType</t>
+  </si>
+  <si>
+    <t>Scheme type/community/rules (clause 5.3.9)</t>
+  </si>
+  <si>
+    <t>SchemeInformation.territory</t>
+  </si>
+  <si>
+    <t>Scheme territory (clause 5.3.10)</t>
+  </si>
+  <si>
+    <t>SchemeInformation.policy</t>
+  </si>
+  <si>
+    <t>TSL policy/legal notice (clause 5.3.11)</t>
+  </si>
+  <si>
+    <t>SchemeInformation.historicalInformationPeriod</t>
+  </si>
+  <si>
+    <t>Historical information period (clause 5.3.12)</t>
+  </si>
+  <si>
+    <t>SchemeInformation.otherTSL</t>
+  </si>
+  <si>
+    <t>Pointers to other TSLs (clause 5.3.13)</t>
+  </si>
+  <si>
+    <t>SchemeInformation.issDateTime</t>
+  </si>
+  <si>
+    <t>List issue date and time (clause 5.3.14)</t>
+  </si>
+  <si>
+    <t>SchemeInformation.nextUpdate</t>
+  </si>
+  <si>
+    <t>Next update (clause 5.3.15)</t>
+  </si>
+  <si>
+    <t>SchemeInformation.distributionPoints</t>
+  </si>
+  <si>
+    <t>Distribution points (clause 5.3.16)</t>
+  </si>
+  <si>
+    <t>SchemeInformation.extensions</t>
+  </si>
+  <si>
+    <t>Scheme extensions (clause 5.3.17)</t>
+  </si>
+  <si>
+    <t>SmartHealthLink</t>
+  </si>
+  <si>
+    <t>http://smart.who.int/trust/StructureDefinition/SmartHealthLink</t>
+  </si>
+  <si>
+    <t>Smart Health Link (DRAFT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart Health Link URI (DRAFT)
+Logical Model to represent a SMART Health Link as its URI.  It is generated from the content of the SMART Health Link Payload.
+</t>
+  </si>
+  <si>
+    <t>SmartHealthLink.u</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>URI of the Smart Health Link.  Should look like 'shlink:/eyJ1cmwiOiJodHRwczovL2Vo....'</t>
+  </si>
+  <si>
+    <t>SmartHealthLinkPayload</t>
+  </si>
+  <si>
+    <t>http://smart.who.int/trust/StructureDefinition/SmartHealthLinkPayload</t>
+  </si>
+  <si>
+    <t>Smart Health Link Payload (DRAFT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart Health Link Payload (DRAFT)
+This logical model was taken from the SMART Health Link documentation &lt;https://docs.smarthealthit.org/smart-health-links/spec#construct-a-shlink-payload&gt; as if 30 November 2023.
+A [[ SMART Health Link]] is generated from this payload according to the algorithm documented here &lt;https://docs.smarthealthit.org/smart-health-links/spec#example-shlink-generation&gt; to create a 
+It is generated 
+</t>
+  </si>
+  <si>
+    <t>SmartHealthLinkPayload.url</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Manifest URL for this SHLink</t>
+  </si>
+  <si>
+    <t>SmartHealthLinkPayload.key</t>
+  </si>
+  <si>
+    <t>Decryption key for processing files returned in the manifest. 43 characters, consisting of 32 random bytes base64urlencoded.</t>
+  </si>
+  <si>
+    <t>SmartHealthLinkPayload.exp</t>
+  </si>
+  <si>
+    <t>Optional. Number representing expiration time in Epoch seconds, as a hint to help the SHL Receiving Application determine if this QR is stale. (Note: epoch times should be parsed into 64-bit numeric types.)</t>
+  </si>
+  <si>
+    <t>SmartHealthLinkPayload.flag</t>
+  </si>
+  <si>
+    <t>Optional. String created by concatenating single-character flags in alphabetical order
+  L Indicates the SHLink is intended for long-term use and manifest content can evolve over time
+  P Indicates the SHLink requires a Passcode to resolves
+  U Indicates the SHLink's url resolves to a single encrypted file accessible via GET, bypassing the manifest. SHALL NOT be used in combination with P.</t>
+  </si>
+  <si>
+    <t>SmartHealthLinkPayload.label</t>
+  </si>
+  <si>
+    <t>Optional. String no longer than 80 characters that provides a short description of the data behind the SHLink.</t>
+  </si>
+  <si>
+    <t>SmartHealthLinkPayload.v</t>
+  </si>
+  <si>
+    <t>Optional. Integer representing the SHLinks protocol version this SHLink conforms to. MAY be omitted when the default value (1) applies.</t>
   </si>
 </sst>
 </file>
@@ -575,7 +877,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B147"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1233,6 +1535,492 @@
         <v>36</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1240,7 +2028,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK18"/>
+  <dimension ref="A1:AK50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1249,11 +2037,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.91015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="23.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="59.82421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="59.82421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="8.95703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="21.21875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -1263,7 +2051,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="12.12890625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1278,10 +2066,10 @@
     <col min="27" max="27" width="19.625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="17.234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="59.82421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
@@ -3150,6 +3938,3308 @@
         <v>73</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Q27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R30" s="2"/>
+      <c r="S30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R31" s="2"/>
+      <c r="S31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R32" s="2"/>
+      <c r="S32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R33" s="2"/>
+      <c r="S33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R34" s="2"/>
+      <c r="S34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R35" s="2"/>
+      <c r="S35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R36" s="2"/>
+      <c r="S36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R37" s="2"/>
+      <c r="S37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R38" s="2"/>
+      <c r="S38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R39" s="2"/>
+      <c r="S39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R40" s="2"/>
+      <c r="S40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R41" s="2"/>
+      <c r="S41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R42" s="2"/>
+      <c r="S42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R43" s="2"/>
+      <c r="S43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R44" s="2"/>
+      <c r="S44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R45" s="2"/>
+      <c r="S45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R46" s="2"/>
+      <c r="S46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R50" s="2"/>
+      <c r="S50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/trust/all-profiles.xlsx
+++ b/trust/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="237">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.3</t>
+    <t>1.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T23:34:44+00:00</t>
+    <t>2024-11-04T12:37:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -401,7 +401,7 @@
     <t>HCert.3</t>
   </si>
   <si>
-    <t xml:space="preserve">DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet.VS}
+    <t xml:space="preserve">http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSetVS}
 </t>
   </si>
   <si>
@@ -414,7 +414,7 @@
     <t>HCert.4</t>
   </si>
   <si>
-    <t xml:space="preserve">DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet.TR}
+    <t xml:space="preserve">http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSetTR}
 </t>
   </si>
   <si>
@@ -435,6 +435,19 @@
   </si>
   <si>
     <t>SMART Health Link</t>
+  </si>
+  <si>
+    <t>HCert.-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://smart.who.int/icvp/StructureDefinition/DVCPayload
+</t>
+  </si>
+  <si>
+    <t>DVC</t>
+  </si>
+  <si>
+    <t>Digital Vaccination Certificate (Proposed)</t>
   </si>
   <si>
     <t>SchemeInformation</t>
@@ -1548,7 +1561,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87">
@@ -1556,7 +1569,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88">
@@ -1572,7 +1585,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90">
@@ -1580,7 +1593,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91">
@@ -1588,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92">
@@ -1634,7 +1647,7 @@
         <v>22</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98">
@@ -1670,7 +1683,7 @@
         <v>30</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
@@ -1710,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108">
@@ -1718,7 +1731,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109">
@@ -1734,7 +1747,7 @@
         <v>8</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111">
@@ -1742,7 +1755,7 @@
         <v>9</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112">
@@ -1750,7 +1763,7 @@
         <v>11</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113">
@@ -1796,7 +1809,7 @@
         <v>22</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119">
@@ -1832,7 +1845,7 @@
         <v>30</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124">
@@ -1872,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="129">
@@ -1880,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1909,7 @@
         <v>8</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132">
@@ -1904,7 +1917,7 @@
         <v>9</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="133">
@@ -1912,7 +1925,7 @@
         <v>11</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134">
@@ -1958,7 +1971,7 @@
         <v>22</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="140">
@@ -1994,7 +2007,7 @@
         <v>30</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="145">
@@ -2028,7 +2041,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK50"/>
+  <dimension ref="A1:AK51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3940,7 +3953,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>137</v>
@@ -3969,13 +3982,13 @@
         <v>73</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>139</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -4026,7 +4039,7 @@
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
@@ -4043,13 +4056,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4057,10 +4070,10 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>73</v>
@@ -4072,13 +4085,13 @@
         <v>73</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="N20" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -4129,13 +4142,13 @@
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
@@ -4146,13 +4159,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4175,13 +4188,13 @@
         <v>73</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4232,7 +4245,7 @@
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -4249,13 +4262,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4278,13 +4291,13 @@
         <v>73</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -4335,7 +4348,7 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -4352,13 +4365,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4381,13 +4394,13 @@
         <v>73</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4438,7 +4451,7 @@
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -4455,13 +4468,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4472,7 +4485,7 @@
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>73</v>
@@ -4484,13 +4497,13 @@
         <v>73</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4541,24 +4554,24 @@
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>155</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>156</v>
@@ -4572,10 +4585,10 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>73</v>
@@ -4587,10 +4600,10 @@
         <v>73</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>158</v>
@@ -4644,24 +4657,24 @@
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>160</v>
@@ -4671,14 +4684,14 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>73</v>
@@ -4690,17 +4703,15 @@
         <v>73</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
         <v>73</v>
@@ -4737,46 +4748,46 @@
         <v>73</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
@@ -4789,26 +4800,24 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="P27" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>73</v>
       </c>
@@ -4844,19 +4853,19 @@
         <v>73</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -4868,26 +4877,26 @@
         <v>73</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -4896,22 +4905,26 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="P28" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
         <v>73</v>
       </c>
@@ -4959,10 +4972,10 @@
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
@@ -4971,18 +4984,18 @@
         <v>73</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>73</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4990,7 +5003,7 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -5005,13 +5018,13 @@
         <v>73</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -5062,10 +5075,10 @@
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
@@ -5079,13 +5092,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5093,10 +5106,10 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>73</v>
@@ -5108,13 +5121,13 @@
         <v>73</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -5165,13 +5178,13 @@
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -5182,13 +5195,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5211,13 +5224,13 @@
         <v>73</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -5268,7 +5281,7 @@
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -5285,13 +5298,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5314,13 +5327,13 @@
         <v>73</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -5371,7 +5384,7 @@
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -5388,13 +5401,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5417,13 +5430,13 @@
         <v>73</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -5474,7 +5487,7 @@
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -5491,13 +5504,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5520,13 +5533,13 @@
         <v>73</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -5577,7 +5590,7 @@
         <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -5594,13 +5607,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5623,13 +5636,13 @@
         <v>73</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -5680,7 +5693,7 @@
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -5697,13 +5710,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5726,13 +5739,13 @@
         <v>73</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -5783,7 +5796,7 @@
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -5800,13 +5813,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5814,10 +5827,10 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>73</v>
@@ -5829,13 +5842,13 @@
         <v>73</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -5886,13 +5899,13 @@
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -5903,13 +5916,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5917,10 +5930,10 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>73</v>
@@ -5932,13 +5945,13 @@
         <v>73</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -5989,13 +6002,13 @@
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>73</v>
@@ -6006,13 +6019,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6038,10 +6051,10 @@
         <v>110</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -6092,7 +6105,7 @@
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6109,13 +6122,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6123,10 +6136,10 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>73</v>
@@ -6138,13 +6151,13 @@
         <v>73</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6195,13 +6208,13 @@
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>73</v>
@@ -6212,13 +6225,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6241,13 +6254,13 @@
         <v>73</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6298,7 +6311,7 @@
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
@@ -6315,13 +6328,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6344,10 +6357,10 @@
         <v>73</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>212</v>
@@ -6401,7 +6414,7 @@
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
@@ -6418,7 +6431,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>213</v>
@@ -6432,10 +6445,10 @@
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>73</v>
@@ -6447,13 +6460,13 @@
         <v>73</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -6504,13 +6517,13 @@
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>73</v>
@@ -6521,13 +6534,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6535,10 +6548,10 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>73</v>
@@ -6550,7 +6563,7 @@
         <v>73</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>218</v>
@@ -6607,13 +6620,13 @@
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>73</v>
@@ -6624,7 +6637,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>220</v>
@@ -6638,10 +6651,10 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>73</v>
@@ -6653,13 +6666,13 @@
         <v>73</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -6710,13 +6723,13 @@
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>73</v>
@@ -6727,13 +6740,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6759,10 +6772,10 @@
         <v>80</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -6813,7 +6826,7 @@
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -6830,13 +6843,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6844,7 +6857,7 @@
       </c>
       <c r="F47" s="2"/>
       <c r="G47" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -6862,10 +6875,10 @@
         <v>80</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -6916,10 +6929,10 @@
         <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
@@ -6933,13 +6946,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6965,10 +6978,10 @@
         <v>80</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -7019,7 +7032,7 @@
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
@@ -7036,13 +7049,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7068,10 +7081,10 @@
         <v>80</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -7122,7 +7135,7 @@
         <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>74</v>
@@ -7139,13 +7152,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7171,10 +7184,10 @@
         <v>80</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -7225,7 +7238,7 @@
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
@@ -7237,6 +7250,109 @@
         <v>73</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/trust/all-profiles.xlsx
+++ b/trust/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.4</t>
+    <t>1.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-04T12:37:06+00:00</t>
+    <t>2024-12-19T12:46:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/trust/all-profiles.xlsx
+++ b/trust/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.6</t>
+    <t>1.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T12:46:28+00:00</t>
+    <t>2024-11-04T12:37:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/trust/all-profiles.xlsx
+++ b/trust/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.4</t>
+    <t>1.1.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-04T12:37:06+00:00</t>
+    <t>2024-12-20T06:07:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/trust/all-profiles.xlsx
+++ b/trust/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="212">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-02T15:21:33+02:00</t>
+    <t>2025-10-27T08:38:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,7 +96,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -427,10 +427,23 @@
     <t>HCert.5</t>
   </si>
   <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>URI of the Smart Health Link.  Of the form 'shlink:/eyJ1cmwiOiJodHRwczovL2Vo....'</t>
+    <t>VHL</t>
+  </si>
+  <si>
+    <t>URI of a Verifiable Health Link.  Of the form 'vhlink:/eyJ1cmwiOiJodHRwczovL2Vo....'</t>
+  </si>
+  <si>
+    <t>HCert.-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://smart.who.int/trust-phw/StructureDefinition/DVC
+</t>
+  </si>
+  <si>
+    <t>DVC</t>
+  </si>
+  <si>
+    <t>Digital Vaccination Certificate (Proposed)</t>
   </si>
   <si>
     <t>SchemeInformation</t>
@@ -497,10 +510,6 @@
     <t>SchemeInformation.operatorAddress.id</t>
   </si>
   <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -508,10 +517,6 @@
   </si>
   <si>
     <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>SchemeInformation.operatorAddress.extension</t>
@@ -528,7 +533,7 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -564,11 +569,11 @@
     <t>Extensions that cannot be ignored even if unrecognized</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1471,7 +1476,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87">
@@ -1479,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88">
@@ -1495,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90">
@@ -1503,7 +1508,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91">
@@ -1511,7 +1516,7 @@
         <v>11</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
@@ -1557,7 +1562,7 @@
         <v>22</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
@@ -1593,7 +1598,7 @@
         <v>30</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103">
@@ -1627,7 +1632,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK41"/>
+  <dimension ref="A1:AK42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1636,40 +1641,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.7578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="58.85546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="58.85546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="20.859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.34375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.2890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="51.2890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="18.19140625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="229.828125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.91015625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="58.85546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.5" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.6953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="16.828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="51.2890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -3539,7 +3544,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>136</v>
@@ -3568,13 +3573,13 @@
         <v>73</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>138</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -3625,7 +3630,7 @@
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
@@ -3642,13 +3647,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3656,10 +3661,10 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>73</v>
@@ -3671,13 +3676,13 @@
         <v>73</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="N20" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -3728,13 +3733,13 @@
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
@@ -3745,13 +3750,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3774,13 +3779,13 @@
         <v>73</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -3831,7 +3836,7 @@
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -3848,13 +3853,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3877,13 +3882,13 @@
         <v>73</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -3934,7 +3939,7 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -3951,13 +3956,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3980,13 +3985,13 @@
         <v>73</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4037,7 +4042,7 @@
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -4054,13 +4059,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4071,7 +4076,7 @@
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>73</v>
@@ -4083,13 +4088,13 @@
         <v>73</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4140,24 +4145,24 @@
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>155</v>
@@ -4171,10 +4176,10 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>73</v>
@@ -4192,7 +4197,7 @@
         <v>157</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -4243,41 +4248,41 @@
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>73</v>
@@ -4289,17 +4294,15 @@
         <v>73</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
         <v>73</v>
@@ -4336,46 +4339,46 @@
         <v>73</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>171</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
@@ -4388,26 +4391,24 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="P27" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>73</v>
       </c>
@@ -4443,19 +4444,19 @@
         <v>73</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -4467,26 +4468,26 @@
         <v>73</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -4495,22 +4496,26 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="Q28" t="s" s="2">
         <v>73</v>
       </c>
@@ -4558,10 +4563,10 @@
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
@@ -4570,18 +4575,18 @@
         <v>73</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>73</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4589,7 +4594,7 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -4604,13 +4609,13 @@
         <v>73</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N29" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -4661,10 +4666,10 @@
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
@@ -4678,13 +4683,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4692,10 +4697,10 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>73</v>
@@ -4707,13 +4712,13 @@
         <v>73</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>186</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -4764,13 +4769,13 @@
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -4781,13 +4786,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4810,10 +4815,10 @@
         <v>73</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>189</v>
@@ -4867,7 +4872,7 @@
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -4884,7 +4889,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>190</v>
@@ -4913,7 +4918,7 @@
         <v>73</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>191</v>
@@ -4987,7 +4992,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>192</v>
@@ -5016,7 +5021,7 @@
         <v>73</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>193</v>
@@ -5090,7 +5095,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>194</v>
@@ -5119,7 +5124,7 @@
         <v>73</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>195</v>
@@ -5193,7 +5198,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>196</v>
@@ -5222,7 +5227,7 @@
         <v>73</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>197</v>
@@ -5296,7 +5301,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>198</v>
@@ -5325,7 +5330,7 @@
         <v>73</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>199</v>
@@ -5399,7 +5404,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>200</v>
@@ -5413,10 +5418,10 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>73</v>
@@ -5428,7 +5433,7 @@
         <v>73</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>201</v>
@@ -5488,10 +5493,10 @@
         <v>200</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -5502,7 +5507,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>202</v>
@@ -5516,10 +5521,10 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>73</v>
@@ -5531,7 +5536,7 @@
         <v>73</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>203</v>
@@ -5591,10 +5596,10 @@
         <v>202</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>73</v>
@@ -5605,7 +5610,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>204</v>
@@ -5708,7 +5713,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>206</v>
@@ -5722,10 +5727,10 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>73</v>
@@ -5737,7 +5742,7 @@
         <v>73</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>207</v>
@@ -5797,10 +5802,10 @@
         <v>206</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>73</v>
@@ -5811,7 +5816,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>208</v>
@@ -5840,7 +5845,7 @@
         <v>73</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>209</v>
@@ -5909,6 +5914,109 @@
         <v>73</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R42" s="2"/>
+      <c r="S42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>73</v>
       </c>
     </row>
